--- a/data/CS4/Market Data/CS4_market_data_base.xlsx
+++ b/data/CS4/Market Data/CS4_market_data_base.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS4\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A467240-D8EC-4802-984F-4BA792CF8B98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91793005-5908-44BC-88FF-9D6670A2EC87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="48870" yWindow="-10725" windowWidth="17310" windowHeight="9975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -386,7 +386,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -415,7 +415,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3">
-        <v>5.0000000000000001E-3</v>
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
